--- a/protobuff/backup/Privilege/heroPrivilege.xlsx
+++ b/protobuff/backup/Privilege/heroPrivilege.xlsx
@@ -371,11 +371,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -425,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="32">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -441,6 +443,7 @@
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -455,6 +458,7 @@
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,7 +791,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -887,7 +891,7 @@
         <v>48</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -1000,7 +1004,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1097,7 +1101,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1114,9 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="D6" t="b">
         <v>1</v>
       </c>
@@ -1132,7 +1134,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1142,9 +1144,7 @@
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
+      <c r="C8" s="7"/>
       <c r="D8" t="b">
         <v>1</v>
       </c>
@@ -1153,9 +1153,7 @@
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" t="b">
         <v>1</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1175,9 +1173,7 @@
       <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="D11" t="b">
         <v>1</v>
       </c>
@@ -1186,9 +1182,7 @@
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="7">
-        <v>5</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" t="b">
         <v>1</v>
       </c>
@@ -1197,9 +1191,7 @@
       <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7">
-        <v>6</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" t="b">
         <v>1</v>
       </c>
@@ -1208,9 +1200,7 @@
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7">
-        <v>7</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" t="b">
         <v>1</v>
       </c>
@@ -1219,9 +1209,7 @@
       <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="7">
-        <v>8</v>
-      </c>
+      <c r="C15" s="7"/>
       <c r="D15" t="b">
         <v>1</v>
       </c>
@@ -1230,9 +1218,7 @@
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="7">
-        <v>9</v>
-      </c>
+      <c r="C16" s="7"/>
       <c r="D16" t="b">
         <v>1</v>
       </c>
@@ -1242,7 +1228,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1252,9 +1238,7 @@
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7">
-        <v>11</v>
-      </c>
+      <c r="C18" s="7"/>
       <c r="D18" t="b">
         <v>1</v>
       </c>
@@ -1263,9 +1247,7 @@
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="7">
-        <v>12</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" t="b">
         <v>1</v>
       </c>
@@ -1274,9 +1256,7 @@
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="7">
-        <v>13</v>
-      </c>
+      <c r="C20" s="7"/>
       <c r="D20" t="b">
         <v>1</v>
       </c>

--- a/protobuff/backup/Privilege/heroPrivilege.xlsx
+++ b/protobuff/backup/Privilege/heroPrivilege.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\server\server\protobuff\backup\Privilege\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="0" windowWidth="25600" windowHeight="19040" tabRatio="500"/>
+    <workbookView xWindow="42240" yWindow="0" windowWidth="25605" windowHeight="19035" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="heroPrivilegeProperties" sheetId="3" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <author>dragon li</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>vip1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,15 +111,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>今日竞技场门票购买次数已用完，大神，您已经无法再增加购买次数。</t>
-  </si>
-  <si>
-    <t>今日竞技场门票购买次数已用完，{buyCharge}可以增加购买次数。</t>
-  </si>
-  <si>
-    <t>VIP1开启重置竞技场CD功能，前往充值提升VIP等级。</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -152,115 +148,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>monthNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthVip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillThreshold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllowBuySkillPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillTimeDec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启购买技能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点回复减少x秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启一键附灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefEnum(cs:Privilege.HeroPrivilegeNames,java:com.rwproto.PrivilegeProtos.HeroPrivilegeNames)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllowAttach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>vip2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vip15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthNormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthVip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillThreshold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAllowBuySkillPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillTimeDec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启购买技能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能点上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能点回复减少x秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启一键附灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefEnum(cs:Privilege.HeroPrivilegeNames,java:com.rwproto.PrivilegeProtos.HeroPrivilegeNames)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAllowAttach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级到VIP可增加购买竞技场门票次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级到VIP可增加购买竞技场门票次数</t>
+  </si>
+  <si>
+    <t>VIP1开启购买技能点功能，充值可提升VIP等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP7开启一键附灵功能，充值可提升VIP等级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +329,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -357,7 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +405,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,19 +413,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="32">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -444,25 +448,32 @@
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -790,201 +801,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,296 +995,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>15</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7">
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5">
         <v>20</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="7"/>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5">
+        <v>20</v>
+      </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>25</v>
+      </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5">
+        <v>25</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>25</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5">
+        <v>30</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <v>30</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5">
+        <v>30</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5">
+        <v>30</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5">
+        <v>30</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5">
+        <v>30</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5">
+        <v>30</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7">
-        <v>30</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/protobuff/backup/Privilege/heroPrivilege.xlsx
+++ b/protobuff/backup/Privilege/heroPrivilege.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="0" windowWidth="25605" windowHeight="19035" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="42240" yWindow="0" windowWidth="25605" windowHeight="19035" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="heroPrivilegeProperties" sheetId="3" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -995,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/protobuff/backup/Privilege/heroPrivilege.xlsx
+++ b/protobuff/backup/Privilege/heroPrivilege.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="0" windowWidth="25605" windowHeight="19035" tabRatio="500"/>
+    <workbookView xWindow="42240" yWindow="0" windowWidth="25605" windowHeight="19035" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="heroPrivilegeProperties" sheetId="3" r:id="rId1"/>
     <sheet name="heroPrivilege" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1098,6 +1098,9 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
@@ -1112,6 +1115,9 @@
       </c>
       <c r="D6" t="b">
         <v>1</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>

--- a/protobuff/backup/Privilege/heroPrivilege.xlsx
+++ b/protobuff/backup/Privilege/heroPrivilege.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1098,9 +1098,6 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
@@ -1115,9 +1112,6 @@
       </c>
       <c r="D6" t="b">
         <v>1</v>
-      </c>
-      <c r="E6">
-        <v>30</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
